--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC115B00-61D9-44B6-A779-1FFCB9801DE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11B65D9-0EC4-4A29-8FD5-71F5CA1FF1FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鉴定系统UI自动化" sheetId="1" r:id="rId1"/>
@@ -510,12 +510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>file_path=D:\UI_AUTO_TEST\1.wav
-export_path=D:\UI_AUTO_TEST
-export_window_name=导出案件受理记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_user_and_group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,6 +582,13 @@
     <t>file_path=D:\UI_AUTO_TEST\wavf.wavf
 file_type=Wavf
 assert_result=wavf.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_audio=D:\UI_AUTO_TEST\1.wav
+sample_audio=D:\UI_AUTO_TEST\2.wav
+export_path=D:\UI_AUTO_TEST
+export_window_name=导出案件受理记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1050,7 +1051,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1081,10 +1082,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>89</v>
@@ -1092,10 +1093,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>38</v>
@@ -1176,7 +1177,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="54" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>91</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>38</v>
@@ -1259,13 +1260,13 @@
     </row>
     <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>38</v>
@@ -1273,13 +1274,13 @@
     </row>
     <row r="17" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>38</v>
@@ -1287,13 +1288,13 @@
     </row>
     <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>38</v>
@@ -1301,13 +1302,13 @@
     </row>
     <row r="19" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>38</v>
@@ -1589,7 +1590,7 @@
     </row>
     <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>24</v>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11B65D9-0EC4-4A29-8FD5-71F5CA1FF1FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576069AD-64B1-45AA-9C89-8755A12F8956}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鉴定系统UI自动化" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">鉴定系统UI自动化!$A$1:$E$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">鉴定系统UI自动化!$A$1:$E$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
   <si>
     <t>测试数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,15 +82,6 @@
   </si>
   <si>
     <t>（案件列表）搜索案件</t>
-  </si>
-  <si>
-    <t>（处理中的案件）重命名案件</t>
-  </si>
-  <si>
-    <t>（处理中的案件）导出案件</t>
-  </si>
-  <si>
-    <t>（处理中的案件）删除案件</t>
   </si>
   <si>
     <t>（案件回收站）搜索案件</t>
@@ -320,23 +311,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_rename_opened_case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_export_opened_case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_allocate_case_to_group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>（处理中的案件）分发案件给用户组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_del_opened_case</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -466,10 +445,6 @@
   <si>
     <t>file_path=D:\UI_AUTO_TEST
 window_name=导出案件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prompt_message=案件已移入回收站！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1047,11 +1022,11 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1065,10 +1040,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
@@ -1077,561 +1052,522 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="54" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>6</v>
+        <v>79</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="E21" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="C22" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="E22" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="54" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="54" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="E25" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="378" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="148.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="B36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="378" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="148.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
